--- a/Genus_input_reads.xlsx
+++ b/Genus_input_reads.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lcai/Documents/GitHub/Bruno_barcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA75DEDC-4299-434F-B98C-4D2056920428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD81C23A-3583-CA4A-80B1-B6A77062C473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" xr2:uid="{AED4ACFE-60B5-2248-89FD-DD24598D5344}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Total_bases</t>
   </si>
@@ -152,15 +152,34 @@
   <si>
     <t>Num_reads_per_end_10M</t>
   </si>
+  <si>
+    <t>Num_reads_per_end_5M</t>
+  </si>
+  <si>
+    <t>Num_reads_per_end_2M</t>
+  </si>
+  <si>
+    <t>Num_reads_per_end_1M</t>
+  </si>
+  <si>
+    <t>Num_reads_per_end_500k</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -186,10 +205,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1725C47A-90DE-A747-AA64-0961FB486C2E}">
-  <dimension ref="A1:I196"/>
+  <dimension ref="A1:M196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,7 +535,7 @@
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -543,8 +563,20 @@
       <c r="I1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>69</v>
       </c>
@@ -566,8 +598,24 @@
       <c r="I2" s="2">
         <v>40254</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="2">
+        <f>I2/2</f>
+        <v>20127</v>
+      </c>
+      <c r="K2" s="2">
+        <f>I2/5</f>
+        <v>8050.8</v>
+      </c>
+      <c r="L2" s="2">
+        <f>I2/10</f>
+        <v>4025.4</v>
+      </c>
+      <c r="M2" s="2">
+        <f>L2/2</f>
+        <v>2012.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>168</v>
       </c>
@@ -589,8 +637,24 @@
       <c r="I3" s="2">
         <v>40796</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J66" si="0">I3/2</f>
+        <v>20398</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K66" si="1">I3/5</f>
+        <v>8159.2</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" ref="L3:L66" si="2">I3/10</f>
+        <v>4079.6</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" ref="M3:M66" si="3">L3/2</f>
+        <v>2039.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>170</v>
       </c>
@@ -618,8 +682,24 @@
       <c r="I4" s="2">
         <v>41975</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="2">
+        <f t="shared" si="0"/>
+        <v>20987.5</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="1"/>
+        <v>8395</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="2"/>
+        <v>4197.5</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" si="3"/>
+        <v>2098.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>174</v>
       </c>
@@ -641,8 +721,24 @@
       <c r="I5" s="2">
         <v>43270</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="2">
+        <f t="shared" si="0"/>
+        <v>21635</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="1"/>
+        <v>8654</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="2"/>
+        <v>4327</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="3"/>
+        <v>2163.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>176</v>
       </c>
@@ -664,8 +760,24 @@
       <c r="I6" s="2">
         <v>40688</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>20344</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="1"/>
+        <v>8137.6</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="2"/>
+        <v>4068.8</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="3"/>
+        <v>2034.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>270</v>
       </c>
@@ -690,8 +802,24 @@
       <c r="I7" s="2">
         <v>42746</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>21373</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="1"/>
+        <v>8549.2000000000007</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="2"/>
+        <v>4274.6000000000004</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="3"/>
+        <v>2137.3000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>533</v>
       </c>
@@ -716,8 +844,24 @@
       <c r="I8" s="2">
         <v>43110</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>21555</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="1"/>
+        <v>8622</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="2"/>
+        <v>4311</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="3"/>
+        <v>2155.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>596</v>
       </c>
@@ -736,8 +880,24 @@
       <c r="I9" s="2">
         <v>40329</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>20164.5</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="1"/>
+        <v>8065.8</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="2"/>
+        <v>4032.9</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="3"/>
+        <v>2016.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>618</v>
       </c>
@@ -756,8 +916,24 @@
       <c r="I10" s="2">
         <v>40583</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>20291.5</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="1"/>
+        <v>8116.6</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="2"/>
+        <v>4058.3</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="3"/>
+        <v>2029.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>644</v>
       </c>
@@ -779,8 +955,24 @@
       <c r="I11" s="2">
         <v>41073</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>20536.5</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="1"/>
+        <v>8214.6</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="2"/>
+        <v>4107.3</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="3"/>
+        <v>2053.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>654</v>
       </c>
@@ -802,8 +994,24 @@
       <c r="I12" s="2">
         <v>40754</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>20377</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="1"/>
+        <v>8150.8</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="2"/>
+        <v>4075.4</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="3"/>
+        <v>2037.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>655</v>
       </c>
@@ -825,8 +1033,24 @@
       <c r="I13" s="2">
         <v>41831</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>20915.5</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="1"/>
+        <v>8366.2000000000007</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="2"/>
+        <v>4183.1000000000004</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="3"/>
+        <v>2091.5500000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>679</v>
       </c>
@@ -851,8 +1075,24 @@
       <c r="I14" s="2">
         <v>36797</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="2">
+        <f t="shared" si="0"/>
+        <v>18398.5</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="1"/>
+        <v>7359.4</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="2"/>
+        <v>3679.7</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="3"/>
+        <v>1839.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>682</v>
       </c>
@@ -874,8 +1114,24 @@
       <c r="I15" s="2">
         <v>41924</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="2">
+        <f t="shared" si="0"/>
+        <v>20962</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="1"/>
+        <v>8384.7999999999993</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="2"/>
+        <v>4192.3999999999996</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="3"/>
+        <v>2096.1999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>706</v>
       </c>
@@ -897,8 +1153,24 @@
       <c r="I16" s="2">
         <v>41369</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="2">
+        <f t="shared" si="0"/>
+        <v>20684.5</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="1"/>
+        <v>8273.7999999999993</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="2"/>
+        <v>4136.8999999999996</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="3"/>
+        <v>2068.4499999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>710</v>
       </c>
@@ -920,8 +1192,24 @@
       <c r="I17" s="2">
         <v>42348</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="2">
+        <f t="shared" si="0"/>
+        <v>21174</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="1"/>
+        <v>8469.6</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="2"/>
+        <v>4234.8</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="3"/>
+        <v>2117.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>743</v>
       </c>
@@ -943,8 +1231,24 @@
       <c r="I18" s="2">
         <v>40883</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="2">
+        <f t="shared" si="0"/>
+        <v>20441.5</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="1"/>
+        <v>8176.6</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="2"/>
+        <v>4088.3</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="3"/>
+        <v>2044.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>746</v>
       </c>
@@ -966,8 +1270,24 @@
       <c r="I19" s="2">
         <v>40598</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="2">
+        <f t="shared" si="0"/>
+        <v>20299</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="1"/>
+        <v>8119.6</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" si="2"/>
+        <v>4059.8</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="3"/>
+        <v>2029.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>747</v>
       </c>
@@ -989,8 +1309,24 @@
       <c r="I20" s="2">
         <v>46077</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="2">
+        <f t="shared" si="0"/>
+        <v>23038.5</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="1"/>
+        <v>9215.4</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" si="2"/>
+        <v>4607.7</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="3"/>
+        <v>2303.85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>760</v>
       </c>
@@ -1009,8 +1345,24 @@
       <c r="I21" s="2">
         <v>40196</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="2">
+        <f t="shared" si="0"/>
+        <v>20098</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="1"/>
+        <v>8039.2</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="2"/>
+        <v>4019.6</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="3"/>
+        <v>2009.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>777</v>
       </c>
@@ -1035,8 +1387,24 @@
       <c r="I22" s="2">
         <v>39888</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>19944</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="1"/>
+        <v>7977.6</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="2"/>
+        <v>3988.8</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="3"/>
+        <v>1994.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>821</v>
       </c>
@@ -1058,8 +1426,24 @@
       <c r="I23" s="2">
         <v>44723</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" s="2">
+        <f t="shared" si="0"/>
+        <v>22361.5</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="1"/>
+        <v>8944.6</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="2"/>
+        <v>4472.3</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="3"/>
+        <v>2236.15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>845</v>
       </c>
@@ -1084,8 +1468,24 @@
       <c r="I24" s="2">
         <v>37166</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" s="2">
+        <f t="shared" si="0"/>
+        <v>18583</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="1"/>
+        <v>7433.2</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="2"/>
+        <v>3716.6</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="3"/>
+        <v>1858.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>944</v>
       </c>
@@ -1107,8 +1507,24 @@
       <c r="I25" s="2">
         <v>36848</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" s="2">
+        <f t="shared" si="0"/>
+        <v>18424</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="1"/>
+        <v>7369.6</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="2"/>
+        <v>3684.8</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="3"/>
+        <v>1842.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1089</v>
       </c>
@@ -1127,8 +1543,24 @@
       <c r="I26" s="2">
         <v>40441</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" s="2">
+        <f t="shared" si="0"/>
+        <v>20220.5</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="1"/>
+        <v>8088.2</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="2"/>
+        <v>4044.1</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="3"/>
+        <v>2022.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1102</v>
       </c>
@@ -1156,8 +1588,24 @@
       <c r="I27" s="2">
         <v>40620</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" s="2">
+        <f t="shared" si="0"/>
+        <v>20310</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="1"/>
+        <v>8124</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="2"/>
+        <v>4062</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="3"/>
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1162</v>
       </c>
@@ -1179,8 +1627,24 @@
       <c r="I28" s="2">
         <v>40785</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" s="2">
+        <f t="shared" si="0"/>
+        <v>20392.5</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="1"/>
+        <v>8157</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" si="2"/>
+        <v>4078.5</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="3"/>
+        <v>2039.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1165</v>
       </c>
@@ -1205,8 +1669,24 @@
       <c r="I29" s="2">
         <v>41539</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" s="2">
+        <f t="shared" si="0"/>
+        <v>20769.5</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="1"/>
+        <v>8307.7999999999993</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" si="2"/>
+        <v>4153.8999999999996</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" si="3"/>
+        <v>2076.9499999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1174</v>
       </c>
@@ -1225,8 +1705,24 @@
       <c r="I30" s="2">
         <v>41346</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30" s="2">
+        <f t="shared" si="0"/>
+        <v>20673</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="1"/>
+        <v>8269.2000000000007</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" si="2"/>
+        <v>4134.6000000000004</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" si="3"/>
+        <v>2067.3000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1176</v>
       </c>
@@ -1245,8 +1741,24 @@
       <c r="I31" s="2">
         <v>40186</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31" s="2">
+        <f t="shared" si="0"/>
+        <v>20093</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="1"/>
+        <v>8037.2</v>
+      </c>
+      <c r="L31" s="2">
+        <f t="shared" si="2"/>
+        <v>4018.6</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" si="3"/>
+        <v>2009.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1182</v>
       </c>
@@ -1271,8 +1783,24 @@
       <c r="I32" s="2">
         <v>40519</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" s="2">
+        <f t="shared" si="0"/>
+        <v>20259.5</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" si="1"/>
+        <v>8103.8</v>
+      </c>
+      <c r="L32" s="2">
+        <f t="shared" si="2"/>
+        <v>4051.9</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" si="3"/>
+        <v>2025.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1240</v>
       </c>
@@ -1294,8 +1822,24 @@
       <c r="I33" s="2">
         <v>40821</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" s="2">
+        <f t="shared" si="0"/>
+        <v>20410.5</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" si="1"/>
+        <v>8164.2</v>
+      </c>
+      <c r="L33" s="2">
+        <f t="shared" si="2"/>
+        <v>4082.1</v>
+      </c>
+      <c r="M33" s="2">
+        <f t="shared" si="3"/>
+        <v>2041.05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1285</v>
       </c>
@@ -1317,8 +1861,24 @@
       <c r="I34" s="2">
         <v>41271</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34" s="2">
+        <f t="shared" si="0"/>
+        <v>20635.5</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" si="1"/>
+        <v>8254.2000000000007</v>
+      </c>
+      <c r="L34" s="2">
+        <f t="shared" si="2"/>
+        <v>4127.1000000000004</v>
+      </c>
+      <c r="M34" s="2">
+        <f t="shared" si="3"/>
+        <v>2063.5500000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1314</v>
       </c>
@@ -1340,8 +1900,24 @@
       <c r="I35" s="2">
         <v>40920</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" s="2">
+        <f t="shared" si="0"/>
+        <v>20460</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" si="1"/>
+        <v>8184</v>
+      </c>
+      <c r="L35" s="2">
+        <f t="shared" si="2"/>
+        <v>4092</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" si="3"/>
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1324</v>
       </c>
@@ -1363,8 +1939,24 @@
       <c r="I36" s="2">
         <v>40633</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" s="2">
+        <f t="shared" si="0"/>
+        <v>20316.5</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="1"/>
+        <v>8126.6</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" si="2"/>
+        <v>4063.3</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" si="3"/>
+        <v>2031.65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1382</v>
       </c>
@@ -1386,8 +1978,24 @@
       <c r="I37" s="2">
         <v>40973</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" s="2">
+        <f t="shared" si="0"/>
+        <v>20486.5</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="1"/>
+        <v>8194.6</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" si="2"/>
+        <v>4097.3</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="3"/>
+        <v>2048.65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1386</v>
       </c>
@@ -1412,8 +2020,24 @@
       <c r="I38" s="2">
         <v>41713</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" s="2">
+        <f t="shared" si="0"/>
+        <v>20856.5</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="1"/>
+        <v>8342.6</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" si="2"/>
+        <v>4171.3</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" si="3"/>
+        <v>2085.65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1502</v>
       </c>
@@ -1438,8 +2062,24 @@
       <c r="I39" s="2">
         <v>41070</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" s="2">
+        <f t="shared" si="0"/>
+        <v>20535</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="1"/>
+        <v>8214</v>
+      </c>
+      <c r="L39" s="2">
+        <f t="shared" si="2"/>
+        <v>4107</v>
+      </c>
+      <c r="M39" s="2">
+        <f t="shared" si="3"/>
+        <v>2053.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1503</v>
       </c>
@@ -1467,8 +2107,24 @@
       <c r="I40" s="2">
         <v>41286</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40" s="2">
+        <f t="shared" si="0"/>
+        <v>20643</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" si="1"/>
+        <v>8257.2000000000007</v>
+      </c>
+      <c r="L40" s="2">
+        <f t="shared" si="2"/>
+        <v>4128.6000000000004</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" si="3"/>
+        <v>2064.3000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1525</v>
       </c>
@@ -1496,8 +2152,24 @@
       <c r="I41" s="2">
         <v>40101</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41" s="2">
+        <f t="shared" si="0"/>
+        <v>20050.5</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" si="1"/>
+        <v>8020.2</v>
+      </c>
+      <c r="L41" s="2">
+        <f t="shared" si="2"/>
+        <v>4010.1</v>
+      </c>
+      <c r="M41" s="2">
+        <f t="shared" si="3"/>
+        <v>2005.05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1531</v>
       </c>
@@ -1522,8 +2194,24 @@
       <c r="I42" s="2">
         <v>36874</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42" s="2">
+        <f t="shared" si="0"/>
+        <v>18437</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="1"/>
+        <v>7374.8</v>
+      </c>
+      <c r="L42" s="2">
+        <f t="shared" si="2"/>
+        <v>3687.4</v>
+      </c>
+      <c r="M42" s="2">
+        <f t="shared" si="3"/>
+        <v>1843.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1534</v>
       </c>
@@ -1545,8 +2233,24 @@
       <c r="I43" s="2">
         <v>33694</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" s="2">
+        <f t="shared" si="0"/>
+        <v>16847</v>
+      </c>
+      <c r="K43" s="2">
+        <f t="shared" si="1"/>
+        <v>6738.8</v>
+      </c>
+      <c r="L43" s="2">
+        <f t="shared" si="2"/>
+        <v>3369.4</v>
+      </c>
+      <c r="M43" s="2">
+        <f t="shared" si="3"/>
+        <v>1684.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1538</v>
       </c>
@@ -1565,8 +2269,24 @@
       <c r="I44" s="2">
         <v>40721</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44" s="2">
+        <f t="shared" si="0"/>
+        <v>20360.5</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" si="1"/>
+        <v>8144.2</v>
+      </c>
+      <c r="L44" s="2">
+        <f t="shared" si="2"/>
+        <v>4072.1</v>
+      </c>
+      <c r="M44" s="2">
+        <f t="shared" si="3"/>
+        <v>2036.05</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1540</v>
       </c>
@@ -1582,8 +2302,24 @@
       <c r="I45" s="2">
         <v>40484</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45" s="2">
+        <f t="shared" si="0"/>
+        <v>20242</v>
+      </c>
+      <c r="K45" s="2">
+        <f t="shared" si="1"/>
+        <v>8096.8</v>
+      </c>
+      <c r="L45" s="2">
+        <f t="shared" si="2"/>
+        <v>4048.4</v>
+      </c>
+      <c r="M45" s="2">
+        <f t="shared" si="3"/>
+        <v>2024.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1543</v>
       </c>
@@ -1602,8 +2338,24 @@
       <c r="I46" s="2">
         <v>42155</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46" s="2">
+        <f t="shared" si="0"/>
+        <v>21077.5</v>
+      </c>
+      <c r="K46" s="2">
+        <f t="shared" si="1"/>
+        <v>8431</v>
+      </c>
+      <c r="L46" s="2">
+        <f t="shared" si="2"/>
+        <v>4215.5</v>
+      </c>
+      <c r="M46" s="2">
+        <f t="shared" si="3"/>
+        <v>2107.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1556</v>
       </c>
@@ -1625,8 +2377,24 @@
       <c r="I47" s="2">
         <v>45540</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47" s="2">
+        <f t="shared" si="0"/>
+        <v>22770</v>
+      </c>
+      <c r="K47" s="2">
+        <f t="shared" si="1"/>
+        <v>9108</v>
+      </c>
+      <c r="L47" s="2">
+        <f t="shared" si="2"/>
+        <v>4554</v>
+      </c>
+      <c r="M47" s="2">
+        <f t="shared" si="3"/>
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1570</v>
       </c>
@@ -1648,8 +2416,24 @@
       <c r="I48" s="2">
         <v>41158</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48" s="2">
+        <f t="shared" si="0"/>
+        <v>20579</v>
+      </c>
+      <c r="K48" s="2">
+        <f t="shared" si="1"/>
+        <v>8231.6</v>
+      </c>
+      <c r="L48" s="2">
+        <f t="shared" si="2"/>
+        <v>4115.8</v>
+      </c>
+      <c r="M48" s="2">
+        <f t="shared" si="3"/>
+        <v>2057.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1582</v>
       </c>
@@ -1668,8 +2452,24 @@
       <c r="I49" s="2">
         <v>40510</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49" s="2">
+        <f t="shared" si="0"/>
+        <v>20255</v>
+      </c>
+      <c r="K49" s="2">
+        <f t="shared" si="1"/>
+        <v>8102</v>
+      </c>
+      <c r="L49" s="2">
+        <f t="shared" si="2"/>
+        <v>4051</v>
+      </c>
+      <c r="M49" s="2">
+        <f t="shared" si="3"/>
+        <v>2025.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1590</v>
       </c>
@@ -1691,8 +2491,24 @@
       <c r="I50" s="2">
         <v>41266</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50" s="2">
+        <f t="shared" si="0"/>
+        <v>20633</v>
+      </c>
+      <c r="K50" s="2">
+        <f t="shared" si="1"/>
+        <v>8253.2000000000007</v>
+      </c>
+      <c r="L50" s="2">
+        <f t="shared" si="2"/>
+        <v>4126.6000000000004</v>
+      </c>
+      <c r="M50" s="2">
+        <f t="shared" si="3"/>
+        <v>2063.3000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1610</v>
       </c>
@@ -1720,8 +2536,24 @@
       <c r="I51" s="2">
         <v>40215</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51" s="2">
+        <f t="shared" si="0"/>
+        <v>20107.5</v>
+      </c>
+      <c r="K51" s="2">
+        <f t="shared" si="1"/>
+        <v>8043</v>
+      </c>
+      <c r="L51" s="2">
+        <f t="shared" si="2"/>
+        <v>4021.5</v>
+      </c>
+      <c r="M51" s="2">
+        <f t="shared" si="3"/>
+        <v>2010.75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1653</v>
       </c>
@@ -1743,8 +2575,24 @@
       <c r="I52" s="2">
         <v>40188</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52" s="2">
+        <f t="shared" si="0"/>
+        <v>20094</v>
+      </c>
+      <c r="K52" s="2">
+        <f t="shared" si="1"/>
+        <v>8037.6</v>
+      </c>
+      <c r="L52" s="2">
+        <f t="shared" si="2"/>
+        <v>4018.8</v>
+      </c>
+      <c r="M52" s="2">
+        <f t="shared" si="3"/>
+        <v>2009.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1661</v>
       </c>
@@ -1769,8 +2617,24 @@
       <c r="I53" s="2">
         <v>33732</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53" s="2">
+        <f t="shared" si="0"/>
+        <v>16866</v>
+      </c>
+      <c r="K53" s="2">
+        <f t="shared" si="1"/>
+        <v>6746.4</v>
+      </c>
+      <c r="L53" s="2">
+        <f t="shared" si="2"/>
+        <v>3373.2</v>
+      </c>
+      <c r="M53" s="2">
+        <f t="shared" si="3"/>
+        <v>1686.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1676</v>
       </c>
@@ -1792,8 +2656,24 @@
       <c r="I54" s="2">
         <v>40795</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54" s="2">
+        <f t="shared" si="0"/>
+        <v>20397.5</v>
+      </c>
+      <c r="K54" s="2">
+        <f t="shared" si="1"/>
+        <v>8159</v>
+      </c>
+      <c r="L54" s="2">
+        <f t="shared" si="2"/>
+        <v>4079.5</v>
+      </c>
+      <c r="M54" s="2">
+        <f t="shared" si="3"/>
+        <v>2039.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1677</v>
       </c>
@@ -1812,8 +2692,24 @@
       <c r="I55" s="2">
         <v>40686</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J55" s="2">
+        <f t="shared" si="0"/>
+        <v>20343</v>
+      </c>
+      <c r="K55" s="2">
+        <f t="shared" si="1"/>
+        <v>8137.2</v>
+      </c>
+      <c r="L55" s="2">
+        <f t="shared" si="2"/>
+        <v>4068.6</v>
+      </c>
+      <c r="M55" s="2">
+        <f t="shared" si="3"/>
+        <v>2034.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1678</v>
       </c>
@@ -1835,8 +2731,24 @@
       <c r="I56" s="2">
         <v>40592</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J56" s="2">
+        <f t="shared" si="0"/>
+        <v>20296</v>
+      </c>
+      <c r="K56" s="2">
+        <f t="shared" si="1"/>
+        <v>8118.4</v>
+      </c>
+      <c r="L56" s="2">
+        <f t="shared" si="2"/>
+        <v>4059.2</v>
+      </c>
+      <c r="M56" s="2">
+        <f t="shared" si="3"/>
+        <v>2029.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1679</v>
       </c>
@@ -1855,8 +2767,24 @@
       <c r="I57" s="2">
         <v>41214</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J57" s="2">
+        <f t="shared" si="0"/>
+        <v>20607</v>
+      </c>
+      <c r="K57" s="2">
+        <f t="shared" si="1"/>
+        <v>8242.7999999999993</v>
+      </c>
+      <c r="L57" s="2">
+        <f t="shared" si="2"/>
+        <v>4121.3999999999996</v>
+      </c>
+      <c r="M57" s="2">
+        <f t="shared" si="3"/>
+        <v>2060.6999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1699</v>
       </c>
@@ -1878,8 +2806,24 @@
       <c r="I58" s="2">
         <v>40752</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J58" s="2">
+        <f t="shared" si="0"/>
+        <v>20376</v>
+      </c>
+      <c r="K58" s="2">
+        <f t="shared" si="1"/>
+        <v>8150.4</v>
+      </c>
+      <c r="L58" s="2">
+        <f t="shared" si="2"/>
+        <v>4075.2</v>
+      </c>
+      <c r="M58" s="2">
+        <f t="shared" si="3"/>
+        <v>2037.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1702</v>
       </c>
@@ -1901,8 +2845,24 @@
       <c r="I59" s="2">
         <v>40937</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J59" s="2">
+        <f t="shared" si="0"/>
+        <v>20468.5</v>
+      </c>
+      <c r="K59" s="2">
+        <f t="shared" si="1"/>
+        <v>8187.4</v>
+      </c>
+      <c r="L59" s="2">
+        <f t="shared" si="2"/>
+        <v>4093.7</v>
+      </c>
+      <c r="M59" s="2">
+        <f t="shared" si="3"/>
+        <v>2046.85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1703</v>
       </c>
@@ -1924,8 +2884,24 @@
       <c r="I60" s="2">
         <v>40357</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J60" s="2">
+        <f t="shared" si="0"/>
+        <v>20178.5</v>
+      </c>
+      <c r="K60" s="2">
+        <f t="shared" si="1"/>
+        <v>8071.4</v>
+      </c>
+      <c r="L60" s="2">
+        <f t="shared" si="2"/>
+        <v>4035.7</v>
+      </c>
+      <c r="M60" s="2">
+        <f t="shared" si="3"/>
+        <v>2017.85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1705</v>
       </c>
@@ -1953,8 +2929,24 @@
       <c r="I61" s="2">
         <v>41421</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J61" s="2">
+        <f t="shared" si="0"/>
+        <v>20710.5</v>
+      </c>
+      <c r="K61" s="2">
+        <f t="shared" si="1"/>
+        <v>8284.2000000000007</v>
+      </c>
+      <c r="L61" s="2">
+        <f t="shared" si="2"/>
+        <v>4142.1000000000004</v>
+      </c>
+      <c r="M61" s="2">
+        <f t="shared" si="3"/>
+        <v>2071.0500000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1716</v>
       </c>
@@ -1982,8 +2974,24 @@
       <c r="I62" s="2">
         <v>41085</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62" s="2">
+        <f t="shared" si="0"/>
+        <v>20542.5</v>
+      </c>
+      <c r="K62" s="2">
+        <f t="shared" si="1"/>
+        <v>8217</v>
+      </c>
+      <c r="L62" s="2">
+        <f t="shared" si="2"/>
+        <v>4108.5</v>
+      </c>
+      <c r="M62" s="2">
+        <f t="shared" si="3"/>
+        <v>2054.25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1717</v>
       </c>
@@ -2005,8 +3013,24 @@
       <c r="I63" s="2">
         <v>40438</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J63" s="2">
+        <f t="shared" si="0"/>
+        <v>20219</v>
+      </c>
+      <c r="K63" s="2">
+        <f t="shared" si="1"/>
+        <v>8087.6</v>
+      </c>
+      <c r="L63" s="2">
+        <f t="shared" si="2"/>
+        <v>4043.8</v>
+      </c>
+      <c r="M63" s="2">
+        <f t="shared" si="3"/>
+        <v>2021.9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1739</v>
       </c>
@@ -2031,8 +3055,24 @@
       <c r="I64" s="2">
         <v>39926</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J64" s="2">
+        <f t="shared" si="0"/>
+        <v>19963</v>
+      </c>
+      <c r="K64" s="2">
+        <f t="shared" si="1"/>
+        <v>7985.2</v>
+      </c>
+      <c r="L64" s="2">
+        <f t="shared" si="2"/>
+        <v>3992.6</v>
+      </c>
+      <c r="M64" s="2">
+        <f t="shared" si="3"/>
+        <v>1996.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1740</v>
       </c>
@@ -2054,8 +3094,24 @@
       <c r="I65" s="2">
         <v>41885</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J65" s="2">
+        <f t="shared" si="0"/>
+        <v>20942.5</v>
+      </c>
+      <c r="K65" s="2">
+        <f t="shared" si="1"/>
+        <v>8377</v>
+      </c>
+      <c r="L65" s="2">
+        <f t="shared" si="2"/>
+        <v>4188.5</v>
+      </c>
+      <c r="M65" s="2">
+        <f t="shared" si="3"/>
+        <v>2094.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1770</v>
       </c>
@@ -2083,8 +3139,24 @@
       <c r="I66" s="2">
         <v>41147</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J66" s="2">
+        <f t="shared" si="0"/>
+        <v>20573.5</v>
+      </c>
+      <c r="K66" s="2">
+        <f t="shared" si="1"/>
+        <v>8229.4</v>
+      </c>
+      <c r="L66" s="2">
+        <f t="shared" si="2"/>
+        <v>4114.7</v>
+      </c>
+      <c r="M66" s="2">
+        <f t="shared" si="3"/>
+        <v>2057.35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1774</v>
       </c>
@@ -2106,8 +3178,24 @@
       <c r="I67" s="2">
         <v>34410</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67" s="2">
+        <f t="shared" ref="J67:J130" si="4">I67/2</f>
+        <v>17205</v>
+      </c>
+      <c r="K67" s="2">
+        <f t="shared" ref="K67:K130" si="5">I67/5</f>
+        <v>6882</v>
+      </c>
+      <c r="L67" s="2">
+        <f t="shared" ref="L67:L130" si="6">I67/10</f>
+        <v>3441</v>
+      </c>
+      <c r="M67" s="2">
+        <f t="shared" ref="M67:M130" si="7">L67/2</f>
+        <v>1720.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1845</v>
       </c>
@@ -2129,8 +3217,24 @@
       <c r="I68" s="2">
         <v>40750</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J68" s="2">
+        <f t="shared" si="4"/>
+        <v>20375</v>
+      </c>
+      <c r="K68" s="2">
+        <f t="shared" si="5"/>
+        <v>8150</v>
+      </c>
+      <c r="L68" s="2">
+        <f t="shared" si="6"/>
+        <v>4075</v>
+      </c>
+      <c r="M68" s="2">
+        <f t="shared" si="7"/>
+        <v>2037.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1850</v>
       </c>
@@ -2149,8 +3253,24 @@
       <c r="I69" s="2">
         <v>40165</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J69" s="2">
+        <f t="shared" si="4"/>
+        <v>20082.5</v>
+      </c>
+      <c r="K69" s="2">
+        <f t="shared" si="5"/>
+        <v>8033</v>
+      </c>
+      <c r="L69" s="2">
+        <f t="shared" si="6"/>
+        <v>4016.5</v>
+      </c>
+      <c r="M69" s="2">
+        <f t="shared" si="7"/>
+        <v>2008.25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1853</v>
       </c>
@@ -2172,8 +3292,24 @@
       <c r="I70" s="2">
         <v>40755</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J70" s="2">
+        <f t="shared" si="4"/>
+        <v>20377.5</v>
+      </c>
+      <c r="K70" s="2">
+        <f t="shared" si="5"/>
+        <v>8151</v>
+      </c>
+      <c r="L70" s="2">
+        <f t="shared" si="6"/>
+        <v>4075.5</v>
+      </c>
+      <c r="M70" s="2">
+        <f t="shared" si="7"/>
+        <v>2037.75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1860</v>
       </c>
@@ -2201,8 +3337,24 @@
       <c r="I71" s="2">
         <v>39985</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J71" s="2">
+        <f t="shared" si="4"/>
+        <v>19992.5</v>
+      </c>
+      <c r="K71" s="2">
+        <f t="shared" si="5"/>
+        <v>7997</v>
+      </c>
+      <c r="L71" s="2">
+        <f t="shared" si="6"/>
+        <v>3998.5</v>
+      </c>
+      <c r="M71" s="2">
+        <f t="shared" si="7"/>
+        <v>1999.25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1874</v>
       </c>
@@ -2224,8 +3376,24 @@
       <c r="I72" s="2">
         <v>46054</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J72" s="2">
+        <f t="shared" si="4"/>
+        <v>23027</v>
+      </c>
+      <c r="K72" s="2">
+        <f t="shared" si="5"/>
+        <v>9210.7999999999993</v>
+      </c>
+      <c r="L72" s="2">
+        <f t="shared" si="6"/>
+        <v>4605.3999999999996</v>
+      </c>
+      <c r="M72" s="2">
+        <f t="shared" si="7"/>
+        <v>2302.6999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1877</v>
       </c>
@@ -2247,8 +3415,24 @@
       <c r="I73" s="2">
         <v>43145</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J73" s="2">
+        <f t="shared" si="4"/>
+        <v>21572.5</v>
+      </c>
+      <c r="K73" s="2">
+        <f t="shared" si="5"/>
+        <v>8629</v>
+      </c>
+      <c r="L73" s="2">
+        <f t="shared" si="6"/>
+        <v>4314.5</v>
+      </c>
+      <c r="M73" s="2">
+        <f t="shared" si="7"/>
+        <v>2157.25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1905</v>
       </c>
@@ -2270,8 +3454,24 @@
       <c r="I74" s="2">
         <v>40975</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J74" s="2">
+        <f t="shared" si="4"/>
+        <v>20487.5</v>
+      </c>
+      <c r="K74" s="2">
+        <f t="shared" si="5"/>
+        <v>8195</v>
+      </c>
+      <c r="L74" s="2">
+        <f t="shared" si="6"/>
+        <v>4097.5</v>
+      </c>
+      <c r="M74" s="2">
+        <f t="shared" si="7"/>
+        <v>2048.75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1915</v>
       </c>
@@ -2299,8 +3499,24 @@
       <c r="I75" s="2">
         <v>40124</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J75" s="2">
+        <f t="shared" si="4"/>
+        <v>20062</v>
+      </c>
+      <c r="K75" s="2">
+        <f t="shared" si="5"/>
+        <v>8024.8</v>
+      </c>
+      <c r="L75" s="2">
+        <f t="shared" si="6"/>
+        <v>4012.4</v>
+      </c>
+      <c r="M75" s="2">
+        <f t="shared" si="7"/>
+        <v>2006.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1928</v>
       </c>
@@ -2322,8 +3538,24 @@
       <c r="I76" s="2">
         <v>40130</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J76" s="2">
+        <f t="shared" si="4"/>
+        <v>20065</v>
+      </c>
+      <c r="K76" s="2">
+        <f t="shared" si="5"/>
+        <v>8026</v>
+      </c>
+      <c r="L76" s="2">
+        <f t="shared" si="6"/>
+        <v>4013</v>
+      </c>
+      <c r="M76" s="2">
+        <f t="shared" si="7"/>
+        <v>2006.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1936</v>
       </c>
@@ -2345,8 +3577,24 @@
       <c r="I77" s="2">
         <v>41627</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J77" s="2">
+        <f t="shared" si="4"/>
+        <v>20813.5</v>
+      </c>
+      <c r="K77" s="2">
+        <f t="shared" si="5"/>
+        <v>8325.4</v>
+      </c>
+      <c r="L77" s="2">
+        <f t="shared" si="6"/>
+        <v>4162.7</v>
+      </c>
+      <c r="M77" s="2">
+        <f t="shared" si="7"/>
+        <v>2081.35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1939</v>
       </c>
@@ -2368,8 +3616,24 @@
       <c r="I78" s="2">
         <v>42313</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J78" s="2">
+        <f t="shared" si="4"/>
+        <v>21156.5</v>
+      </c>
+      <c r="K78" s="2">
+        <f t="shared" si="5"/>
+        <v>8462.6</v>
+      </c>
+      <c r="L78" s="2">
+        <f t="shared" si="6"/>
+        <v>4231.3</v>
+      </c>
+      <c r="M78" s="2">
+        <f t="shared" si="7"/>
+        <v>2115.65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1944</v>
       </c>
@@ -2388,8 +3652,24 @@
       <c r="I79" s="2">
         <v>40401</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J79" s="2">
+        <f t="shared" si="4"/>
+        <v>20200.5</v>
+      </c>
+      <c r="K79" s="2">
+        <f t="shared" si="5"/>
+        <v>8080.2</v>
+      </c>
+      <c r="L79" s="2">
+        <f t="shared" si="6"/>
+        <v>4040.1</v>
+      </c>
+      <c r="M79" s="2">
+        <f t="shared" si="7"/>
+        <v>2020.05</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1946</v>
       </c>
@@ -2408,8 +3688,24 @@
       <c r="I80" s="2">
         <v>40153</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J80" s="2">
+        <f t="shared" si="4"/>
+        <v>20076.5</v>
+      </c>
+      <c r="K80" s="2">
+        <f t="shared" si="5"/>
+        <v>8030.6</v>
+      </c>
+      <c r="L80" s="2">
+        <f t="shared" si="6"/>
+        <v>4015.3</v>
+      </c>
+      <c r="M80" s="2">
+        <f t="shared" si="7"/>
+        <v>2007.65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2065</v>
       </c>
@@ -2431,8 +3727,24 @@
       <c r="I81" s="2">
         <v>41902</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J81" s="2">
+        <f t="shared" si="4"/>
+        <v>20951</v>
+      </c>
+      <c r="K81" s="2">
+        <f t="shared" si="5"/>
+        <v>8380.4</v>
+      </c>
+      <c r="L81" s="2">
+        <f t="shared" si="6"/>
+        <v>4190.2</v>
+      </c>
+      <c r="M81" s="2">
+        <f t="shared" si="7"/>
+        <v>2095.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2095</v>
       </c>
@@ -2460,8 +3772,24 @@
       <c r="I82" s="2">
         <v>41236</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J82" s="2">
+        <f t="shared" si="4"/>
+        <v>20618</v>
+      </c>
+      <c r="K82" s="2">
+        <f t="shared" si="5"/>
+        <v>8247.2000000000007</v>
+      </c>
+      <c r="L82" s="2">
+        <f t="shared" si="6"/>
+        <v>4123.6000000000004</v>
+      </c>
+      <c r="M82" s="2">
+        <f t="shared" si="7"/>
+        <v>2061.8000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2100</v>
       </c>
@@ -2483,8 +3811,24 @@
       <c r="I83" s="2">
         <v>46939</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J83" s="2">
+        <f t="shared" si="4"/>
+        <v>23469.5</v>
+      </c>
+      <c r="K83" s="2">
+        <f t="shared" si="5"/>
+        <v>9387.7999999999993</v>
+      </c>
+      <c r="L83" s="2">
+        <f t="shared" si="6"/>
+        <v>4693.8999999999996</v>
+      </c>
+      <c r="M83" s="2">
+        <f t="shared" si="7"/>
+        <v>2346.9499999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2168</v>
       </c>
@@ -2512,8 +3856,24 @@
       <c r="I84" s="2">
         <v>36831</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J84" s="2">
+        <f t="shared" si="4"/>
+        <v>18415.5</v>
+      </c>
+      <c r="K84" s="2">
+        <f t="shared" si="5"/>
+        <v>7366.2</v>
+      </c>
+      <c r="L84" s="2">
+        <f t="shared" si="6"/>
+        <v>3683.1</v>
+      </c>
+      <c r="M84" s="2">
+        <f t="shared" si="7"/>
+        <v>1841.55</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2207</v>
       </c>
@@ -2532,8 +3892,24 @@
       <c r="I85" s="2">
         <v>42139</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J85" s="2">
+        <f t="shared" si="4"/>
+        <v>21069.5</v>
+      </c>
+      <c r="K85" s="2">
+        <f t="shared" si="5"/>
+        <v>8427.7999999999993</v>
+      </c>
+      <c r="L85" s="2">
+        <f t="shared" si="6"/>
+        <v>4213.8999999999996</v>
+      </c>
+      <c r="M85" s="2">
+        <f t="shared" si="7"/>
+        <v>2106.9499999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2272</v>
       </c>
@@ -2558,8 +3934,24 @@
       <c r="I86" s="2">
         <v>47110</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J86" s="2">
+        <f t="shared" si="4"/>
+        <v>23555</v>
+      </c>
+      <c r="K86" s="2">
+        <f t="shared" si="5"/>
+        <v>9422</v>
+      </c>
+      <c r="L86" s="2">
+        <f t="shared" si="6"/>
+        <v>4711</v>
+      </c>
+      <c r="M86" s="2">
+        <f t="shared" si="7"/>
+        <v>2355.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2279</v>
       </c>
@@ -2578,8 +3970,24 @@
       <c r="I87" s="2">
         <v>42070</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J87" s="2">
+        <f t="shared" si="4"/>
+        <v>21035</v>
+      </c>
+      <c r="K87" s="2">
+        <f t="shared" si="5"/>
+        <v>8414</v>
+      </c>
+      <c r="L87" s="2">
+        <f t="shared" si="6"/>
+        <v>4207</v>
+      </c>
+      <c r="M87" s="2">
+        <f t="shared" si="7"/>
+        <v>2103.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2311</v>
       </c>
@@ -2607,8 +4015,24 @@
       <c r="I88" s="2">
         <v>40514</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J88" s="2">
+        <f t="shared" si="4"/>
+        <v>20257</v>
+      </c>
+      <c r="K88" s="2">
+        <f t="shared" si="5"/>
+        <v>8102.8</v>
+      </c>
+      <c r="L88" s="2">
+        <f t="shared" si="6"/>
+        <v>4051.4</v>
+      </c>
+      <c r="M88" s="2">
+        <f t="shared" si="7"/>
+        <v>2025.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2647</v>
       </c>
@@ -2630,8 +4054,24 @@
       <c r="I89" s="2">
         <v>40247</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J89" s="2">
+        <f t="shared" si="4"/>
+        <v>20123.5</v>
+      </c>
+      <c r="K89" s="2">
+        <f t="shared" si="5"/>
+        <v>8049.4</v>
+      </c>
+      <c r="L89" s="2">
+        <f t="shared" si="6"/>
+        <v>4024.7</v>
+      </c>
+      <c r="M89" s="2">
+        <f t="shared" si="7"/>
+        <v>2012.35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2650</v>
       </c>
@@ -2653,8 +4093,24 @@
       <c r="I90" s="2">
         <v>40708</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J90" s="2">
+        <f t="shared" si="4"/>
+        <v>20354</v>
+      </c>
+      <c r="K90" s="2">
+        <f t="shared" si="5"/>
+        <v>8141.6</v>
+      </c>
+      <c r="L90" s="2">
+        <f t="shared" si="6"/>
+        <v>4070.8</v>
+      </c>
+      <c r="M90" s="2">
+        <f t="shared" si="7"/>
+        <v>2035.4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2657</v>
       </c>
@@ -2673,8 +4129,24 @@
       <c r="I91" s="2">
         <v>40454</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J91" s="2">
+        <f t="shared" si="4"/>
+        <v>20227</v>
+      </c>
+      <c r="K91" s="2">
+        <f t="shared" si="5"/>
+        <v>8090.8</v>
+      </c>
+      <c r="L91" s="2">
+        <f t="shared" si="6"/>
+        <v>4045.4</v>
+      </c>
+      <c r="M91" s="2">
+        <f t="shared" si="7"/>
+        <v>2022.7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2693</v>
       </c>
@@ -2702,8 +4174,24 @@
       <c r="I92" s="2">
         <v>41574</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J92" s="2">
+        <f t="shared" si="4"/>
+        <v>20787</v>
+      </c>
+      <c r="K92" s="2">
+        <f t="shared" si="5"/>
+        <v>8314.7999999999993</v>
+      </c>
+      <c r="L92" s="2">
+        <f t="shared" si="6"/>
+        <v>4157.3999999999996</v>
+      </c>
+      <c r="M92" s="2">
+        <f t="shared" si="7"/>
+        <v>2078.6999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2700</v>
       </c>
@@ -2731,8 +4219,24 @@
       <c r="I93" s="2">
         <v>36733</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J93" s="2">
+        <f t="shared" si="4"/>
+        <v>18366.5</v>
+      </c>
+      <c r="K93" s="2">
+        <f t="shared" si="5"/>
+        <v>7346.6</v>
+      </c>
+      <c r="L93" s="2">
+        <f t="shared" si="6"/>
+        <v>3673.3</v>
+      </c>
+      <c r="M93" s="2">
+        <f t="shared" si="7"/>
+        <v>1836.65</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2711</v>
       </c>
@@ -2760,8 +4264,24 @@
       <c r="I94" s="2">
         <v>42917</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J94" s="2">
+        <f t="shared" si="4"/>
+        <v>21458.5</v>
+      </c>
+      <c r="K94" s="2">
+        <f t="shared" si="5"/>
+        <v>8583.4</v>
+      </c>
+      <c r="L94" s="2">
+        <f t="shared" si="6"/>
+        <v>4291.7</v>
+      </c>
+      <c r="M94" s="2">
+        <f t="shared" si="7"/>
+        <v>2145.85</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2763</v>
       </c>
@@ -2786,8 +4306,24 @@
       <c r="I95" s="2">
         <v>44306</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J95" s="2">
+        <f t="shared" si="4"/>
+        <v>22153</v>
+      </c>
+      <c r="K95" s="2">
+        <f t="shared" si="5"/>
+        <v>8861.2000000000007</v>
+      </c>
+      <c r="L95" s="2">
+        <f t="shared" si="6"/>
+        <v>4430.6000000000004</v>
+      </c>
+      <c r="M95" s="2">
+        <f t="shared" si="7"/>
+        <v>2215.3000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2764</v>
       </c>
@@ -2815,8 +4351,24 @@
       <c r="I96" s="2">
         <v>41968</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J96" s="2">
+        <f t="shared" si="4"/>
+        <v>20984</v>
+      </c>
+      <c r="K96" s="2">
+        <f t="shared" si="5"/>
+        <v>8393.6</v>
+      </c>
+      <c r="L96" s="2">
+        <f t="shared" si="6"/>
+        <v>4196.8</v>
+      </c>
+      <c r="M96" s="2">
+        <f t="shared" si="7"/>
+        <v>2098.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2794</v>
       </c>
@@ -2841,8 +4393,24 @@
       <c r="I97" s="2">
         <v>41742</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J97" s="2">
+        <f t="shared" si="4"/>
+        <v>20871</v>
+      </c>
+      <c r="K97" s="2">
+        <f t="shared" si="5"/>
+        <v>8348.4</v>
+      </c>
+      <c r="L97" s="2">
+        <f t="shared" si="6"/>
+        <v>4174.2</v>
+      </c>
+      <c r="M97" s="2">
+        <f t="shared" si="7"/>
+        <v>2087.1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2798</v>
       </c>
@@ -2864,8 +4432,24 @@
       <c r="I98" s="2">
         <v>44833</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J98" s="2">
+        <f t="shared" si="4"/>
+        <v>22416.5</v>
+      </c>
+      <c r="K98" s="2">
+        <f t="shared" si="5"/>
+        <v>8966.6</v>
+      </c>
+      <c r="L98" s="2">
+        <f t="shared" si="6"/>
+        <v>4483.3</v>
+      </c>
+      <c r="M98" s="2">
+        <f t="shared" si="7"/>
+        <v>2241.65</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2827</v>
       </c>
@@ -2887,8 +4471,24 @@
       <c r="I99" s="2">
         <v>43534</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J99" s="2">
+        <f t="shared" si="4"/>
+        <v>21767</v>
+      </c>
+      <c r="K99" s="2">
+        <f t="shared" si="5"/>
+        <v>8706.7999999999993</v>
+      </c>
+      <c r="L99" s="2">
+        <f t="shared" si="6"/>
+        <v>4353.3999999999996</v>
+      </c>
+      <c r="M99" s="2">
+        <f t="shared" si="7"/>
+        <v>2176.6999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2831</v>
       </c>
@@ -2913,8 +4513,24 @@
       <c r="I100" s="2">
         <v>37301</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J100" s="2">
+        <f t="shared" si="4"/>
+        <v>18650.5</v>
+      </c>
+      <c r="K100" s="2">
+        <f t="shared" si="5"/>
+        <v>7460.2</v>
+      </c>
+      <c r="L100" s="2">
+        <f t="shared" si="6"/>
+        <v>3730.1</v>
+      </c>
+      <c r="M100" s="2">
+        <f t="shared" si="7"/>
+        <v>1865.05</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2906</v>
       </c>
@@ -2936,8 +4552,24 @@
       <c r="I101" s="2">
         <v>58255</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J101" s="2">
+        <f t="shared" si="4"/>
+        <v>29127.5</v>
+      </c>
+      <c r="K101" s="2">
+        <f t="shared" si="5"/>
+        <v>11651</v>
+      </c>
+      <c r="L101" s="2">
+        <f t="shared" si="6"/>
+        <v>5825.5</v>
+      </c>
+      <c r="M101" s="2">
+        <f t="shared" si="7"/>
+        <v>2912.75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2907</v>
       </c>
@@ -2959,8 +4591,24 @@
       <c r="I102" s="2">
         <v>52874</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J102" s="2">
+        <f t="shared" si="4"/>
+        <v>26437</v>
+      </c>
+      <c r="K102" s="2">
+        <f t="shared" si="5"/>
+        <v>10574.8</v>
+      </c>
+      <c r="L102" s="2">
+        <f t="shared" si="6"/>
+        <v>5287.4</v>
+      </c>
+      <c r="M102" s="2">
+        <f t="shared" si="7"/>
+        <v>2643.7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2909</v>
       </c>
@@ -2982,8 +4630,24 @@
       <c r="I103" s="2">
         <v>47490</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J103" s="2">
+        <f t="shared" si="4"/>
+        <v>23745</v>
+      </c>
+      <c r="K103" s="2">
+        <f t="shared" si="5"/>
+        <v>9498</v>
+      </c>
+      <c r="L103" s="2">
+        <f t="shared" si="6"/>
+        <v>4749</v>
+      </c>
+      <c r="M103" s="2">
+        <f t="shared" si="7"/>
+        <v>2374.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2942</v>
       </c>
@@ -3005,8 +4669,24 @@
       <c r="I104" s="2">
         <v>41772</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J104" s="2">
+        <f t="shared" si="4"/>
+        <v>20886</v>
+      </c>
+      <c r="K104" s="2">
+        <f t="shared" si="5"/>
+        <v>8354.4</v>
+      </c>
+      <c r="L104" s="2">
+        <f t="shared" si="6"/>
+        <v>4177.2</v>
+      </c>
+      <c r="M104" s="2">
+        <f t="shared" si="7"/>
+        <v>2088.6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2960</v>
       </c>
@@ -3034,8 +4714,24 @@
       <c r="I105" s="2">
         <v>41797</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J105" s="2">
+        <f t="shared" si="4"/>
+        <v>20898.5</v>
+      </c>
+      <c r="K105" s="2">
+        <f t="shared" si="5"/>
+        <v>8359.4</v>
+      </c>
+      <c r="L105" s="2">
+        <f t="shared" si="6"/>
+        <v>4179.7</v>
+      </c>
+      <c r="M105" s="2">
+        <f t="shared" si="7"/>
+        <v>2089.85</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2985</v>
       </c>
@@ -3057,8 +4753,24 @@
       <c r="I106" s="2">
         <v>44637</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J106" s="2">
+        <f t="shared" si="4"/>
+        <v>22318.5</v>
+      </c>
+      <c r="K106" s="2">
+        <f t="shared" si="5"/>
+        <v>8927.4</v>
+      </c>
+      <c r="L106" s="2">
+        <f t="shared" si="6"/>
+        <v>4463.7</v>
+      </c>
+      <c r="M106" s="2">
+        <f t="shared" si="7"/>
+        <v>2231.85</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>3013</v>
       </c>
@@ -3080,8 +4792,24 @@
       <c r="I107" s="2">
         <v>41065</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J107" s="2">
+        <f t="shared" si="4"/>
+        <v>20532.5</v>
+      </c>
+      <c r="K107" s="2">
+        <f t="shared" si="5"/>
+        <v>8213</v>
+      </c>
+      <c r="L107" s="2">
+        <f t="shared" si="6"/>
+        <v>4106.5</v>
+      </c>
+      <c r="M107" s="2">
+        <f t="shared" si="7"/>
+        <v>2053.25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>3121</v>
       </c>
@@ -3103,8 +4831,24 @@
       <c r="I108" s="2">
         <v>40598</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J108" s="2">
+        <f t="shared" si="4"/>
+        <v>20299</v>
+      </c>
+      <c r="K108" s="2">
+        <f t="shared" si="5"/>
+        <v>8119.6</v>
+      </c>
+      <c r="L108" s="2">
+        <f t="shared" si="6"/>
+        <v>4059.8</v>
+      </c>
+      <c r="M108" s="2">
+        <f t="shared" si="7"/>
+        <v>2029.9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>3122</v>
       </c>
@@ -3126,8 +4870,24 @@
       <c r="I109" s="2">
         <v>43663</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J109" s="2">
+        <f t="shared" si="4"/>
+        <v>21831.5</v>
+      </c>
+      <c r="K109" s="2">
+        <f t="shared" si="5"/>
+        <v>8732.6</v>
+      </c>
+      <c r="L109" s="2">
+        <f t="shared" si="6"/>
+        <v>4366.3</v>
+      </c>
+      <c r="M109" s="2">
+        <f t="shared" si="7"/>
+        <v>2183.15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>3129</v>
       </c>
@@ -3155,8 +4915,24 @@
       <c r="I110" s="2">
         <v>39922</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J110" s="2">
+        <f t="shared" si="4"/>
+        <v>19961</v>
+      </c>
+      <c r="K110" s="2">
+        <f t="shared" si="5"/>
+        <v>7984.4</v>
+      </c>
+      <c r="L110" s="2">
+        <f t="shared" si="6"/>
+        <v>3992.2</v>
+      </c>
+      <c r="M110" s="2">
+        <f t="shared" si="7"/>
+        <v>1996.1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>3211</v>
       </c>
@@ -3181,8 +4957,24 @@
       <c r="I111" s="2">
         <v>44292</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J111" s="2">
+        <f t="shared" si="4"/>
+        <v>22146</v>
+      </c>
+      <c r="K111" s="2">
+        <f t="shared" si="5"/>
+        <v>8858.4</v>
+      </c>
+      <c r="L111" s="2">
+        <f t="shared" si="6"/>
+        <v>4429.2</v>
+      </c>
+      <c r="M111" s="2">
+        <f t="shared" si="7"/>
+        <v>2214.6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>3220</v>
       </c>
@@ -3207,8 +4999,24 @@
       <c r="I112" s="2">
         <v>40614</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J112" s="2">
+        <f t="shared" si="4"/>
+        <v>20307</v>
+      </c>
+      <c r="K112" s="2">
+        <f t="shared" si="5"/>
+        <v>8122.8</v>
+      </c>
+      <c r="L112" s="2">
+        <f t="shared" si="6"/>
+        <v>4061.4</v>
+      </c>
+      <c r="M112" s="2">
+        <f t="shared" si="7"/>
+        <v>2030.7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>3230</v>
       </c>
@@ -3236,8 +5044,24 @@
       <c r="I113" s="2">
         <v>46808</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J113" s="2">
+        <f t="shared" si="4"/>
+        <v>23404</v>
+      </c>
+      <c r="K113" s="2">
+        <f t="shared" si="5"/>
+        <v>9361.6</v>
+      </c>
+      <c r="L113" s="2">
+        <f t="shared" si="6"/>
+        <v>4680.8</v>
+      </c>
+      <c r="M113" s="2">
+        <f t="shared" si="7"/>
+        <v>2340.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>3231</v>
       </c>
@@ -3262,8 +5086,24 @@
       <c r="I114" s="2">
         <v>44052</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J114" s="2">
+        <f t="shared" si="4"/>
+        <v>22026</v>
+      </c>
+      <c r="K114" s="2">
+        <f t="shared" si="5"/>
+        <v>8810.4</v>
+      </c>
+      <c r="L114" s="2">
+        <f t="shared" si="6"/>
+        <v>4405.2</v>
+      </c>
+      <c r="M114" s="2">
+        <f t="shared" si="7"/>
+        <v>2202.6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>3234</v>
       </c>
@@ -3291,8 +5131,24 @@
       <c r="I115" s="2">
         <v>41283</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J115" s="2">
+        <f t="shared" si="4"/>
+        <v>20641.5</v>
+      </c>
+      <c r="K115" s="2">
+        <f t="shared" si="5"/>
+        <v>8256.6</v>
+      </c>
+      <c r="L115" s="2">
+        <f t="shared" si="6"/>
+        <v>4128.3</v>
+      </c>
+      <c r="M115" s="2">
+        <f t="shared" si="7"/>
+        <v>2064.15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>3235</v>
       </c>
@@ -3314,8 +5170,24 @@
       <c r="I116" s="2">
         <v>42341</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J116" s="2">
+        <f t="shared" si="4"/>
+        <v>21170.5</v>
+      </c>
+      <c r="K116" s="2">
+        <f t="shared" si="5"/>
+        <v>8468.2000000000007</v>
+      </c>
+      <c r="L116" s="2">
+        <f t="shared" si="6"/>
+        <v>4234.1000000000004</v>
+      </c>
+      <c r="M116" s="2">
+        <f t="shared" si="7"/>
+        <v>2117.0500000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>3279</v>
       </c>
@@ -3343,8 +5215,24 @@
       <c r="I117" s="2">
         <v>43574</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J117" s="2">
+        <f t="shared" si="4"/>
+        <v>21787</v>
+      </c>
+      <c r="K117" s="2">
+        <f t="shared" si="5"/>
+        <v>8714.7999999999993</v>
+      </c>
+      <c r="L117" s="2">
+        <f t="shared" si="6"/>
+        <v>4357.3999999999996</v>
+      </c>
+      <c r="M117" s="2">
+        <f t="shared" si="7"/>
+        <v>2178.6999999999998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>3301</v>
       </c>
@@ -3372,8 +5260,24 @@
       <c r="I118" s="2">
         <v>37786</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J118" s="2">
+        <f t="shared" si="4"/>
+        <v>18893</v>
+      </c>
+      <c r="K118" s="2">
+        <f t="shared" si="5"/>
+        <v>7557.2</v>
+      </c>
+      <c r="L118" s="2">
+        <f t="shared" si="6"/>
+        <v>3778.6</v>
+      </c>
+      <c r="M118" s="2">
+        <f t="shared" si="7"/>
+        <v>1889.3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>3316</v>
       </c>
@@ -3398,8 +5302,24 @@
       <c r="I119" s="2">
         <v>44188</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J119" s="2">
+        <f t="shared" si="4"/>
+        <v>22094</v>
+      </c>
+      <c r="K119" s="2">
+        <f t="shared" si="5"/>
+        <v>8837.6</v>
+      </c>
+      <c r="L119" s="2">
+        <f t="shared" si="6"/>
+        <v>4418.8</v>
+      </c>
+      <c r="M119" s="2">
+        <f t="shared" si="7"/>
+        <v>2209.4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>3338</v>
       </c>
@@ -3427,8 +5347,24 @@
       <c r="I120" s="2">
         <v>44324</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J120" s="2">
+        <f t="shared" si="4"/>
+        <v>22162</v>
+      </c>
+      <c r="K120" s="2">
+        <f t="shared" si="5"/>
+        <v>8864.7999999999993</v>
+      </c>
+      <c r="L120" s="2">
+        <f t="shared" si="6"/>
+        <v>4432.3999999999996</v>
+      </c>
+      <c r="M120" s="2">
+        <f t="shared" si="7"/>
+        <v>2216.1999999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>3340</v>
       </c>
@@ -3450,8 +5386,24 @@
       <c r="I121" s="2">
         <v>46481</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J121" s="2">
+        <f t="shared" si="4"/>
+        <v>23240.5</v>
+      </c>
+      <c r="K121" s="2">
+        <f t="shared" si="5"/>
+        <v>9296.2000000000007</v>
+      </c>
+      <c r="L121" s="2">
+        <f t="shared" si="6"/>
+        <v>4648.1000000000004</v>
+      </c>
+      <c r="M121" s="2">
+        <f t="shared" si="7"/>
+        <v>2324.0500000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>3341</v>
       </c>
@@ -3479,8 +5431,24 @@
       <c r="I122" s="2">
         <v>40384</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J122" s="2">
+        <f t="shared" si="4"/>
+        <v>20192</v>
+      </c>
+      <c r="K122" s="2">
+        <f t="shared" si="5"/>
+        <v>8076.8</v>
+      </c>
+      <c r="L122" s="2">
+        <f t="shared" si="6"/>
+        <v>4038.4</v>
+      </c>
+      <c r="M122" s="2">
+        <f t="shared" si="7"/>
+        <v>2019.2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>3342</v>
       </c>
@@ -3505,8 +5473,24 @@
       <c r="I123" s="2">
         <v>45541</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J123" s="2">
+        <f t="shared" si="4"/>
+        <v>22770.5</v>
+      </c>
+      <c r="K123" s="2">
+        <f t="shared" si="5"/>
+        <v>9108.2000000000007</v>
+      </c>
+      <c r="L123" s="2">
+        <f t="shared" si="6"/>
+        <v>4554.1000000000004</v>
+      </c>
+      <c r="M123" s="2">
+        <f t="shared" si="7"/>
+        <v>2277.0500000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>3345</v>
       </c>
@@ -3531,8 +5515,24 @@
       <c r="I124" s="2">
         <v>42330</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J124" s="2">
+        <f t="shared" si="4"/>
+        <v>21165</v>
+      </c>
+      <c r="K124" s="2">
+        <f t="shared" si="5"/>
+        <v>8466</v>
+      </c>
+      <c r="L124" s="2">
+        <f t="shared" si="6"/>
+        <v>4233</v>
+      </c>
+      <c r="M124" s="2">
+        <f t="shared" si="7"/>
+        <v>2116.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>3349</v>
       </c>
@@ -3557,8 +5557,24 @@
       <c r="I125" s="2">
         <v>41315</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J125" s="2">
+        <f t="shared" si="4"/>
+        <v>20657.5</v>
+      </c>
+      <c r="K125" s="2">
+        <f t="shared" si="5"/>
+        <v>8263</v>
+      </c>
+      <c r="L125" s="2">
+        <f t="shared" si="6"/>
+        <v>4131.5</v>
+      </c>
+      <c r="M125" s="2">
+        <f t="shared" si="7"/>
+        <v>2065.75</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>3353</v>
       </c>
@@ -3583,8 +5599,24 @@
       <c r="I126" s="2">
         <v>44755</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J126" s="2">
+        <f t="shared" si="4"/>
+        <v>22377.5</v>
+      </c>
+      <c r="K126" s="2">
+        <f t="shared" si="5"/>
+        <v>8951</v>
+      </c>
+      <c r="L126" s="2">
+        <f t="shared" si="6"/>
+        <v>4475.5</v>
+      </c>
+      <c r="M126" s="2">
+        <f t="shared" si="7"/>
+        <v>2237.75</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>3356</v>
       </c>
@@ -3606,8 +5638,24 @@
       <c r="I127" s="2">
         <v>44724</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J127" s="2">
+        <f t="shared" si="4"/>
+        <v>22362</v>
+      </c>
+      <c r="K127" s="2">
+        <f t="shared" si="5"/>
+        <v>8944.7999999999993</v>
+      </c>
+      <c r="L127" s="2">
+        <f t="shared" si="6"/>
+        <v>4472.3999999999996</v>
+      </c>
+      <c r="M127" s="2">
+        <f t="shared" si="7"/>
+        <v>2236.1999999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>3357</v>
       </c>
@@ -3623,8 +5671,24 @@
       <c r="I128" s="2">
         <v>41283</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J128" s="2">
+        <f t="shared" si="4"/>
+        <v>20641.5</v>
+      </c>
+      <c r="K128" s="2">
+        <f t="shared" si="5"/>
+        <v>8256.6</v>
+      </c>
+      <c r="L128" s="2">
+        <f t="shared" si="6"/>
+        <v>4128.3</v>
+      </c>
+      <c r="M128" s="2">
+        <f t="shared" si="7"/>
+        <v>2064.15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>3375</v>
       </c>
@@ -3643,8 +5707,24 @@
       <c r="I129" s="2">
         <v>46461</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J129" s="2">
+        <f t="shared" si="4"/>
+        <v>23230.5</v>
+      </c>
+      <c r="K129" s="2">
+        <f t="shared" si="5"/>
+        <v>9292.2000000000007</v>
+      </c>
+      <c r="L129" s="2">
+        <f t="shared" si="6"/>
+        <v>4646.1000000000004</v>
+      </c>
+      <c r="M129" s="2">
+        <f t="shared" si="7"/>
+        <v>2323.0500000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>3384</v>
       </c>
@@ -3669,8 +5749,24 @@
       <c r="I130" s="2">
         <v>42231</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J130" s="2">
+        <f t="shared" si="4"/>
+        <v>21115.5</v>
+      </c>
+      <c r="K130" s="2">
+        <f t="shared" si="5"/>
+        <v>8446.2000000000007</v>
+      </c>
+      <c r="L130" s="2">
+        <f t="shared" si="6"/>
+        <v>4223.1000000000004</v>
+      </c>
+      <c r="M130" s="2">
+        <f t="shared" si="7"/>
+        <v>2111.5500000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>3386</v>
       </c>
@@ -3695,8 +5791,24 @@
       <c r="I131" s="2">
         <v>49042</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J131" s="2">
+        <f t="shared" ref="J131:J189" si="8">I131/2</f>
+        <v>24521</v>
+      </c>
+      <c r="K131" s="2">
+        <f t="shared" ref="K131:K189" si="9">I131/5</f>
+        <v>9808.4</v>
+      </c>
+      <c r="L131" s="2">
+        <f t="shared" ref="L131:L189" si="10">I131/10</f>
+        <v>4904.2</v>
+      </c>
+      <c r="M131" s="2">
+        <f t="shared" ref="M131:M189" si="11">L131/2</f>
+        <v>2452.1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>3419</v>
       </c>
@@ -3724,8 +5836,24 @@
       <c r="I132" s="2">
         <v>41892</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J132" s="2">
+        <f t="shared" si="8"/>
+        <v>20946</v>
+      </c>
+      <c r="K132" s="2">
+        <f t="shared" si="9"/>
+        <v>8378.4</v>
+      </c>
+      <c r="L132" s="2">
+        <f t="shared" si="10"/>
+        <v>4189.2</v>
+      </c>
+      <c r="M132" s="2">
+        <f t="shared" si="11"/>
+        <v>2094.6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>3423</v>
       </c>
@@ -3750,8 +5878,24 @@
       <c r="I133" s="2">
         <v>48587</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J133" s="2">
+        <f t="shared" si="8"/>
+        <v>24293.5</v>
+      </c>
+      <c r="K133" s="2">
+        <f t="shared" si="9"/>
+        <v>9717.4</v>
+      </c>
+      <c r="L133" s="2">
+        <f t="shared" si="10"/>
+        <v>4858.7</v>
+      </c>
+      <c r="M133" s="2">
+        <f t="shared" si="11"/>
+        <v>2429.35</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>3431</v>
       </c>
@@ -3773,8 +5917,24 @@
       <c r="I134" s="2">
         <v>43518</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J134" s="2">
+        <f t="shared" si="8"/>
+        <v>21759</v>
+      </c>
+      <c r="K134" s="2">
+        <f t="shared" si="9"/>
+        <v>8703.6</v>
+      </c>
+      <c r="L134" s="2">
+        <f t="shared" si="10"/>
+        <v>4351.8</v>
+      </c>
+      <c r="M134" s="2">
+        <f t="shared" si="11"/>
+        <v>2175.9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>3444</v>
       </c>
@@ -3799,8 +5959,24 @@
       <c r="I135" s="2">
         <v>48733</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J135" s="2">
+        <f t="shared" si="8"/>
+        <v>24366.5</v>
+      </c>
+      <c r="K135" s="2">
+        <f t="shared" si="9"/>
+        <v>9746.6</v>
+      </c>
+      <c r="L135" s="2">
+        <f t="shared" si="10"/>
+        <v>4873.3</v>
+      </c>
+      <c r="M135" s="2">
+        <f t="shared" si="11"/>
+        <v>2436.65</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>3447</v>
       </c>
@@ -3822,8 +5998,24 @@
       <c r="I136" s="2">
         <v>40202</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J136" s="2">
+        <f t="shared" si="8"/>
+        <v>20101</v>
+      </c>
+      <c r="K136" s="2">
+        <f t="shared" si="9"/>
+        <v>8040.4</v>
+      </c>
+      <c r="L136" s="2">
+        <f t="shared" si="10"/>
+        <v>4020.2</v>
+      </c>
+      <c r="M136" s="2">
+        <f t="shared" si="11"/>
+        <v>2010.1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>3448</v>
       </c>
@@ -3848,8 +6040,24 @@
       <c r="I137" s="2">
         <v>46024</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J137" s="2">
+        <f t="shared" si="8"/>
+        <v>23012</v>
+      </c>
+      <c r="K137" s="2">
+        <f t="shared" si="9"/>
+        <v>9204.7999999999993</v>
+      </c>
+      <c r="L137" s="2">
+        <f t="shared" si="10"/>
+        <v>4602.3999999999996</v>
+      </c>
+      <c r="M137" s="2">
+        <f t="shared" si="11"/>
+        <v>2301.1999999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>3452</v>
       </c>
@@ -3871,8 +6079,24 @@
       <c r="I138" s="2">
         <v>49382</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J138" s="2">
+        <f t="shared" si="8"/>
+        <v>24691</v>
+      </c>
+      <c r="K138" s="2">
+        <f t="shared" si="9"/>
+        <v>9876.4</v>
+      </c>
+      <c r="L138" s="2">
+        <f t="shared" si="10"/>
+        <v>4938.2</v>
+      </c>
+      <c r="M138" s="2">
+        <f t="shared" si="11"/>
+        <v>2469.1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>3518</v>
       </c>
@@ -3897,8 +6121,24 @@
       <c r="I139" s="2">
         <v>41566</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J139" s="2">
+        <f t="shared" si="8"/>
+        <v>20783</v>
+      </c>
+      <c r="K139" s="2">
+        <f t="shared" si="9"/>
+        <v>8313.2000000000007</v>
+      </c>
+      <c r="L139" s="2">
+        <f t="shared" si="10"/>
+        <v>4156.6000000000004</v>
+      </c>
+      <c r="M139" s="2">
+        <f t="shared" si="11"/>
+        <v>2078.3000000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>3519</v>
       </c>
@@ -3914,8 +6154,24 @@
       <c r="I140" s="2">
         <v>40525</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J140" s="2">
+        <f t="shared" si="8"/>
+        <v>20262.5</v>
+      </c>
+      <c r="K140" s="2">
+        <f t="shared" si="9"/>
+        <v>8105</v>
+      </c>
+      <c r="L140" s="2">
+        <f t="shared" si="10"/>
+        <v>4052.5</v>
+      </c>
+      <c r="M140" s="2">
+        <f t="shared" si="11"/>
+        <v>2026.25</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>3527</v>
       </c>
@@ -3943,8 +6199,24 @@
       <c r="I141" s="2">
         <v>45715</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J141" s="2">
+        <f t="shared" si="8"/>
+        <v>22857.5</v>
+      </c>
+      <c r="K141" s="2">
+        <f t="shared" si="9"/>
+        <v>9143</v>
+      </c>
+      <c r="L141" s="2">
+        <f t="shared" si="10"/>
+        <v>4571.5</v>
+      </c>
+      <c r="M141" s="2">
+        <f t="shared" si="11"/>
+        <v>2285.75</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>3536</v>
       </c>
@@ -3972,8 +6244,24 @@
       <c r="I142" s="2">
         <v>41676</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J142" s="2">
+        <f t="shared" si="8"/>
+        <v>20838</v>
+      </c>
+      <c r="K142" s="2">
+        <f t="shared" si="9"/>
+        <v>8335.2000000000007</v>
+      </c>
+      <c r="L142" s="2">
+        <f t="shared" si="10"/>
+        <v>4167.6000000000004</v>
+      </c>
+      <c r="M142" s="2">
+        <f t="shared" si="11"/>
+        <v>2083.8000000000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>3545</v>
       </c>
@@ -4001,8 +6289,24 @@
       <c r="I143" s="2">
         <v>40667</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J143" s="2">
+        <f t="shared" si="8"/>
+        <v>20333.5</v>
+      </c>
+      <c r="K143" s="2">
+        <f t="shared" si="9"/>
+        <v>8133.4</v>
+      </c>
+      <c r="L143" s="2">
+        <f t="shared" si="10"/>
+        <v>4066.7</v>
+      </c>
+      <c r="M143" s="2">
+        <f t="shared" si="11"/>
+        <v>2033.35</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>3594</v>
       </c>
@@ -4027,8 +6331,24 @@
       <c r="I144" s="2">
         <v>52651</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J144" s="2">
+        <f t="shared" si="8"/>
+        <v>26325.5</v>
+      </c>
+      <c r="K144" s="2">
+        <f t="shared" si="9"/>
+        <v>10530.2</v>
+      </c>
+      <c r="L144" s="2">
+        <f t="shared" si="10"/>
+        <v>5265.1</v>
+      </c>
+      <c r="M144" s="2">
+        <f t="shared" si="11"/>
+        <v>2632.55</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>3595</v>
       </c>
@@ -4050,8 +6370,24 @@
       <c r="I145" s="2">
         <v>45383</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J145" s="2">
+        <f t="shared" si="8"/>
+        <v>22691.5</v>
+      </c>
+      <c r="K145" s="2">
+        <f t="shared" si="9"/>
+        <v>9076.6</v>
+      </c>
+      <c r="L145" s="2">
+        <f t="shared" si="10"/>
+        <v>4538.3</v>
+      </c>
+      <c r="M145" s="2">
+        <f t="shared" si="11"/>
+        <v>2269.15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>3600</v>
       </c>
@@ -4073,8 +6409,24 @@
       <c r="I146" s="2">
         <v>48216</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J146" s="2">
+        <f t="shared" si="8"/>
+        <v>24108</v>
+      </c>
+      <c r="K146" s="2">
+        <f t="shared" si="9"/>
+        <v>9643.2000000000007</v>
+      </c>
+      <c r="L146" s="2">
+        <f t="shared" si="10"/>
+        <v>4821.6000000000004</v>
+      </c>
+      <c r="M146" s="2">
+        <f t="shared" si="11"/>
+        <v>2410.8000000000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>3606</v>
       </c>
@@ -4102,8 +6454,24 @@
       <c r="I147" s="2">
         <v>44463</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J147" s="2">
+        <f t="shared" si="8"/>
+        <v>22231.5</v>
+      </c>
+      <c r="K147" s="2">
+        <f t="shared" si="9"/>
+        <v>8892.6</v>
+      </c>
+      <c r="L147" s="2">
+        <f t="shared" si="10"/>
+        <v>4446.3</v>
+      </c>
+      <c r="M147" s="2">
+        <f t="shared" si="11"/>
+        <v>2223.15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>3609</v>
       </c>
@@ -4125,8 +6493,24 @@
       <c r="I148" s="2">
         <v>54815</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J148" s="2">
+        <f t="shared" si="8"/>
+        <v>27407.5</v>
+      </c>
+      <c r="K148" s="2">
+        <f t="shared" si="9"/>
+        <v>10963</v>
+      </c>
+      <c r="L148" s="2">
+        <f t="shared" si="10"/>
+        <v>5481.5</v>
+      </c>
+      <c r="M148" s="2">
+        <f t="shared" si="11"/>
+        <v>2740.75</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>3640</v>
       </c>
@@ -4148,8 +6532,24 @@
       <c r="I149" s="2">
         <v>41662</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J149" s="2">
+        <f t="shared" si="8"/>
+        <v>20831</v>
+      </c>
+      <c r="K149" s="2">
+        <f t="shared" si="9"/>
+        <v>8332.4</v>
+      </c>
+      <c r="L149" s="2">
+        <f t="shared" si="10"/>
+        <v>4166.2</v>
+      </c>
+      <c r="M149" s="2">
+        <f t="shared" si="11"/>
+        <v>2083.1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>3676</v>
       </c>
@@ -4177,8 +6577,24 @@
       <c r="I150" s="2">
         <v>40636</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J150" s="2">
+        <f t="shared" si="8"/>
+        <v>20318</v>
+      </c>
+      <c r="K150" s="2">
+        <f t="shared" si="9"/>
+        <v>8127.2</v>
+      </c>
+      <c r="L150" s="2">
+        <f t="shared" si="10"/>
+        <v>4063.6</v>
+      </c>
+      <c r="M150" s="2">
+        <f t="shared" si="11"/>
+        <v>2031.8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>3679</v>
       </c>
@@ -4203,8 +6619,24 @@
       <c r="I151" s="2">
         <v>42704</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J151" s="2">
+        <f t="shared" si="8"/>
+        <v>21352</v>
+      </c>
+      <c r="K151" s="2">
+        <f t="shared" si="9"/>
+        <v>8540.7999999999993</v>
+      </c>
+      <c r="L151" s="2">
+        <f t="shared" si="10"/>
+        <v>4270.3999999999996</v>
+      </c>
+      <c r="M151" s="2">
+        <f t="shared" si="11"/>
+        <v>2135.1999999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>3680</v>
       </c>
@@ -4226,8 +6658,24 @@
       <c r="I152" s="2">
         <v>40741</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J152" s="2">
+        <f t="shared" si="8"/>
+        <v>20370.5</v>
+      </c>
+      <c r="K152" s="2">
+        <f t="shared" si="9"/>
+        <v>8148.2</v>
+      </c>
+      <c r="L152" s="2">
+        <f t="shared" si="10"/>
+        <v>4074.1</v>
+      </c>
+      <c r="M152" s="2">
+        <f t="shared" si="11"/>
+        <v>2037.05</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>3729</v>
       </c>
@@ -4252,8 +6700,24 @@
       <c r="I153" s="2">
         <v>40745</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J153" s="2">
+        <f t="shared" si="8"/>
+        <v>20372.5</v>
+      </c>
+      <c r="K153" s="2">
+        <f t="shared" si="9"/>
+        <v>8149</v>
+      </c>
+      <c r="L153" s="2">
+        <f t="shared" si="10"/>
+        <v>4074.5</v>
+      </c>
+      <c r="M153" s="2">
+        <f t="shared" si="11"/>
+        <v>2037.25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>3935</v>
       </c>
@@ -4281,8 +6745,24 @@
       <c r="I154" s="2">
         <v>45010</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J154" s="2">
+        <f t="shared" si="8"/>
+        <v>22505</v>
+      </c>
+      <c r="K154" s="2">
+        <f t="shared" si="9"/>
+        <v>9002</v>
+      </c>
+      <c r="L154" s="2">
+        <f t="shared" si="10"/>
+        <v>4501</v>
+      </c>
+      <c r="M154" s="2">
+        <f t="shared" si="11"/>
+        <v>2250.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>3955</v>
       </c>
@@ -4310,8 +6790,24 @@
       <c r="I155" s="2">
         <v>44999</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J155" s="2">
+        <f t="shared" si="8"/>
+        <v>22499.5</v>
+      </c>
+      <c r="K155" s="2">
+        <f t="shared" si="9"/>
+        <v>8999.7999999999993</v>
+      </c>
+      <c r="L155" s="2">
+        <f t="shared" si="10"/>
+        <v>4499.8999999999996</v>
+      </c>
+      <c r="M155" s="2">
+        <f t="shared" si="11"/>
+        <v>2249.9499999999998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>3966</v>
       </c>
@@ -4339,8 +6835,24 @@
       <c r="I156" s="2">
         <v>48340</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J156" s="2">
+        <f t="shared" si="8"/>
+        <v>24170</v>
+      </c>
+      <c r="K156" s="2">
+        <f t="shared" si="9"/>
+        <v>9668</v>
+      </c>
+      <c r="L156" s="2">
+        <f t="shared" si="10"/>
+        <v>4834</v>
+      </c>
+      <c r="M156" s="2">
+        <f t="shared" si="11"/>
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>3970</v>
       </c>
@@ -4368,8 +6880,24 @@
       <c r="I157" s="2">
         <v>60183</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J157" s="2">
+        <f t="shared" si="8"/>
+        <v>30091.5</v>
+      </c>
+      <c r="K157" s="2">
+        <f t="shared" si="9"/>
+        <v>12036.6</v>
+      </c>
+      <c r="L157" s="2">
+        <f t="shared" si="10"/>
+        <v>6018.3</v>
+      </c>
+      <c r="M157" s="2">
+        <f t="shared" si="11"/>
+        <v>3009.15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>3980</v>
       </c>
@@ -4397,8 +6925,24 @@
       <c r="I158" s="2">
         <v>45845</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J158" s="2">
+        <f t="shared" si="8"/>
+        <v>22922.5</v>
+      </c>
+      <c r="K158" s="2">
+        <f t="shared" si="9"/>
+        <v>9169</v>
+      </c>
+      <c r="L158" s="2">
+        <f t="shared" si="10"/>
+        <v>4584.5</v>
+      </c>
+      <c r="M158" s="2">
+        <f t="shared" si="11"/>
+        <v>2292.25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>4004</v>
       </c>
@@ -4426,8 +6970,24 @@
       <c r="I159" s="2">
         <v>47568</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J159" s="2">
+        <f t="shared" si="8"/>
+        <v>23784</v>
+      </c>
+      <c r="K159" s="2">
+        <f t="shared" si="9"/>
+        <v>9513.6</v>
+      </c>
+      <c r="L159" s="2">
+        <f t="shared" si="10"/>
+        <v>4756.8</v>
+      </c>
+      <c r="M159" s="2">
+        <f t="shared" si="11"/>
+        <v>2378.4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>3</v>
       </c>
@@ -4455,8 +7015,24 @@
       <c r="I160" s="2">
         <v>36989</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J160" s="2">
+        <f t="shared" si="8"/>
+        <v>18494.5</v>
+      </c>
+      <c r="K160" s="2">
+        <f t="shared" si="9"/>
+        <v>7397.8</v>
+      </c>
+      <c r="L160" s="2">
+        <f t="shared" si="10"/>
+        <v>3698.9</v>
+      </c>
+      <c r="M160" s="2">
+        <f t="shared" si="11"/>
+        <v>1849.45</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>4</v>
       </c>
@@ -4484,8 +7060,24 @@
       <c r="I161" s="2">
         <v>36666</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J161" s="2">
+        <f t="shared" si="8"/>
+        <v>18333</v>
+      </c>
+      <c r="K161" s="2">
+        <f t="shared" si="9"/>
+        <v>7333.2</v>
+      </c>
+      <c r="L161" s="2">
+        <f t="shared" si="10"/>
+        <v>3666.6</v>
+      </c>
+      <c r="M161" s="2">
+        <f t="shared" si="11"/>
+        <v>1833.3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>5</v>
       </c>
@@ -4513,8 +7105,24 @@
       <c r="I162" s="2">
         <v>35825</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J162" s="2">
+        <f t="shared" si="8"/>
+        <v>17912.5</v>
+      </c>
+      <c r="K162" s="2">
+        <f t="shared" si="9"/>
+        <v>7165</v>
+      </c>
+      <c r="L162" s="2">
+        <f t="shared" si="10"/>
+        <v>3582.5</v>
+      </c>
+      <c r="M162" s="2">
+        <f t="shared" si="11"/>
+        <v>1791.25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -4542,8 +7150,24 @@
       <c r="I163" s="2">
         <v>36845</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J163" s="2">
+        <f t="shared" si="8"/>
+        <v>18422.5</v>
+      </c>
+      <c r="K163" s="2">
+        <f t="shared" si="9"/>
+        <v>7369</v>
+      </c>
+      <c r="L163" s="2">
+        <f t="shared" si="10"/>
+        <v>3684.5</v>
+      </c>
+      <c r="M163" s="2">
+        <f t="shared" si="11"/>
+        <v>1842.25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -4571,8 +7195,24 @@
       <c r="I164" s="2">
         <v>37919</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J164" s="2">
+        <f t="shared" si="8"/>
+        <v>18959.5</v>
+      </c>
+      <c r="K164" s="2">
+        <f t="shared" si="9"/>
+        <v>7583.8</v>
+      </c>
+      <c r="L164" s="2">
+        <f t="shared" si="10"/>
+        <v>3791.9</v>
+      </c>
+      <c r="M164" s="2">
+        <f t="shared" si="11"/>
+        <v>1895.95</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>8</v>
       </c>
@@ -4600,8 +7240,24 @@
       <c r="I165" s="2">
         <v>39640</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J165" s="2">
+        <f t="shared" si="8"/>
+        <v>19820</v>
+      </c>
+      <c r="K165" s="2">
+        <f t="shared" si="9"/>
+        <v>7928</v>
+      </c>
+      <c r="L165" s="2">
+        <f t="shared" si="10"/>
+        <v>3964</v>
+      </c>
+      <c r="M165" s="2">
+        <f t="shared" si="11"/>
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>9</v>
       </c>
@@ -4629,8 +7285,24 @@
       <c r="I166" s="2">
         <v>35486</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J166" s="2">
+        <f t="shared" si="8"/>
+        <v>17743</v>
+      </c>
+      <c r="K166" s="2">
+        <f t="shared" si="9"/>
+        <v>7097.2</v>
+      </c>
+      <c r="L166" s="2">
+        <f t="shared" si="10"/>
+        <v>3548.6</v>
+      </c>
+      <c r="M166" s="2">
+        <f t="shared" si="11"/>
+        <v>1774.3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>10</v>
       </c>
@@ -4658,8 +7330,24 @@
       <c r="I167" s="2">
         <v>41945</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J167" s="2">
+        <f t="shared" si="8"/>
+        <v>20972.5</v>
+      </c>
+      <c r="K167" s="2">
+        <f t="shared" si="9"/>
+        <v>8389</v>
+      </c>
+      <c r="L167" s="2">
+        <f t="shared" si="10"/>
+        <v>4194.5</v>
+      </c>
+      <c r="M167" s="2">
+        <f t="shared" si="11"/>
+        <v>2097.25</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>11</v>
       </c>
@@ -4687,8 +7375,24 @@
       <c r="I168" s="2">
         <v>36792</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J168" s="2">
+        <f t="shared" si="8"/>
+        <v>18396</v>
+      </c>
+      <c r="K168" s="2">
+        <f t="shared" si="9"/>
+        <v>7358.4</v>
+      </c>
+      <c r="L168" s="2">
+        <f t="shared" si="10"/>
+        <v>3679.2</v>
+      </c>
+      <c r="M168" s="2">
+        <f t="shared" si="11"/>
+        <v>1839.6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>12</v>
       </c>
@@ -4716,8 +7420,24 @@
       <c r="I169" s="2">
         <v>40278</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J169" s="2">
+        <f t="shared" si="8"/>
+        <v>20139</v>
+      </c>
+      <c r="K169" s="2">
+        <f t="shared" si="9"/>
+        <v>8055.6</v>
+      </c>
+      <c r="L169" s="2">
+        <f t="shared" si="10"/>
+        <v>4027.8</v>
+      </c>
+      <c r="M169" s="2">
+        <f t="shared" si="11"/>
+        <v>2013.9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>13</v>
       </c>
@@ -4745,8 +7465,24 @@
       <c r="I170" s="2">
         <v>36286</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J170" s="2">
+        <f t="shared" si="8"/>
+        <v>18143</v>
+      </c>
+      <c r="K170" s="2">
+        <f t="shared" si="9"/>
+        <v>7257.2</v>
+      </c>
+      <c r="L170" s="2">
+        <f t="shared" si="10"/>
+        <v>3628.6</v>
+      </c>
+      <c r="M170" s="2">
+        <f t="shared" si="11"/>
+        <v>1814.3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>14</v>
       </c>
@@ -4774,8 +7510,24 @@
       <c r="I171" s="2">
         <v>35688</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J171" s="2">
+        <f t="shared" si="8"/>
+        <v>17844</v>
+      </c>
+      <c r="K171" s="2">
+        <f t="shared" si="9"/>
+        <v>7137.6</v>
+      </c>
+      <c r="L171" s="2">
+        <f t="shared" si="10"/>
+        <v>3568.8</v>
+      </c>
+      <c r="M171" s="2">
+        <f t="shared" si="11"/>
+        <v>1784.4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>15</v>
       </c>
@@ -4803,8 +7555,24 @@
       <c r="I172" s="2">
         <v>38438</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J172" s="2">
+        <f t="shared" si="8"/>
+        <v>19219</v>
+      </c>
+      <c r="K172" s="2">
+        <f t="shared" si="9"/>
+        <v>7687.6</v>
+      </c>
+      <c r="L172" s="2">
+        <f t="shared" si="10"/>
+        <v>3843.8</v>
+      </c>
+      <c r="M172" s="2">
+        <f t="shared" si="11"/>
+        <v>1921.9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>16</v>
       </c>
@@ -4832,8 +7600,24 @@
       <c r="I173" s="2">
         <v>37744</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J173" s="2">
+        <f t="shared" si="8"/>
+        <v>18872</v>
+      </c>
+      <c r="K173" s="2">
+        <f t="shared" si="9"/>
+        <v>7548.8</v>
+      </c>
+      <c r="L173" s="2">
+        <f t="shared" si="10"/>
+        <v>3774.4</v>
+      </c>
+      <c r="M173" s="2">
+        <f t="shared" si="11"/>
+        <v>1887.2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>17</v>
       </c>
@@ -4861,8 +7645,24 @@
       <c r="I174" s="2">
         <v>39356</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J174" s="2">
+        <f t="shared" si="8"/>
+        <v>19678</v>
+      </c>
+      <c r="K174" s="2">
+        <f t="shared" si="9"/>
+        <v>7871.2</v>
+      </c>
+      <c r="L174" s="2">
+        <f t="shared" si="10"/>
+        <v>3935.6</v>
+      </c>
+      <c r="M174" s="2">
+        <f t="shared" si="11"/>
+        <v>1967.8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>18</v>
       </c>
@@ -4890,8 +7690,24 @@
       <c r="I175" s="2">
         <v>37153</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J175" s="2">
+        <f t="shared" si="8"/>
+        <v>18576.5</v>
+      </c>
+      <c r="K175" s="2">
+        <f t="shared" si="9"/>
+        <v>7430.6</v>
+      </c>
+      <c r="L175" s="2">
+        <f t="shared" si="10"/>
+        <v>3715.3</v>
+      </c>
+      <c r="M175" s="2">
+        <f t="shared" si="11"/>
+        <v>1857.65</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>19</v>
       </c>
@@ -4919,8 +7735,24 @@
       <c r="I176" s="2">
         <v>35842</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J176" s="2">
+        <f t="shared" si="8"/>
+        <v>17921</v>
+      </c>
+      <c r="K176" s="2">
+        <f t="shared" si="9"/>
+        <v>7168.4</v>
+      </c>
+      <c r="L176" s="2">
+        <f t="shared" si="10"/>
+        <v>3584.2</v>
+      </c>
+      <c r="M176" s="2">
+        <f t="shared" si="11"/>
+        <v>1792.1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>20</v>
       </c>
@@ -4948,8 +7780,24 @@
       <c r="I177" s="2">
         <v>37817</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J177" s="2">
+        <f t="shared" si="8"/>
+        <v>18908.5</v>
+      </c>
+      <c r="K177" s="2">
+        <f t="shared" si="9"/>
+        <v>7563.4</v>
+      </c>
+      <c r="L177" s="2">
+        <f t="shared" si="10"/>
+        <v>3781.7</v>
+      </c>
+      <c r="M177" s="2">
+        <f t="shared" si="11"/>
+        <v>1890.85</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>21</v>
       </c>
@@ -4977,8 +7825,24 @@
       <c r="I178" s="2">
         <v>38082</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J178" s="2">
+        <f t="shared" si="8"/>
+        <v>19041</v>
+      </c>
+      <c r="K178" s="2">
+        <f t="shared" si="9"/>
+        <v>7616.4</v>
+      </c>
+      <c r="L178" s="2">
+        <f t="shared" si="10"/>
+        <v>3808.2</v>
+      </c>
+      <c r="M178" s="2">
+        <f t="shared" si="11"/>
+        <v>1904.1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>22</v>
       </c>
@@ -5006,8 +7870,24 @@
       <c r="I179" s="2">
         <v>35322</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J179" s="2">
+        <f t="shared" si="8"/>
+        <v>17661</v>
+      </c>
+      <c r="K179" s="2">
+        <f t="shared" si="9"/>
+        <v>7064.4</v>
+      </c>
+      <c r="L179" s="2">
+        <f t="shared" si="10"/>
+        <v>3532.2</v>
+      </c>
+      <c r="M179" s="2">
+        <f t="shared" si="11"/>
+        <v>1766.1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>23</v>
       </c>
@@ -5035,8 +7915,24 @@
       <c r="I180" s="2">
         <v>42879</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J180" s="2">
+        <f t="shared" si="8"/>
+        <v>21439.5</v>
+      </c>
+      <c r="K180" s="2">
+        <f t="shared" si="9"/>
+        <v>8575.7999999999993</v>
+      </c>
+      <c r="L180" s="2">
+        <f t="shared" si="10"/>
+        <v>4287.8999999999996</v>
+      </c>
+      <c r="M180" s="2">
+        <f t="shared" si="11"/>
+        <v>2143.9499999999998</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>24</v>
       </c>
@@ -5064,8 +7960,24 @@
       <c r="I181" s="2">
         <v>37026</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J181" s="2">
+        <f t="shared" si="8"/>
+        <v>18513</v>
+      </c>
+      <c r="K181" s="2">
+        <f t="shared" si="9"/>
+        <v>7405.2</v>
+      </c>
+      <c r="L181" s="2">
+        <f t="shared" si="10"/>
+        <v>3702.6</v>
+      </c>
+      <c r="M181" s="2">
+        <f t="shared" si="11"/>
+        <v>1851.3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>25</v>
       </c>
@@ -5093,8 +8005,24 @@
       <c r="I182" s="2">
         <v>37051</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J182" s="2">
+        <f t="shared" si="8"/>
+        <v>18525.5</v>
+      </c>
+      <c r="K182" s="2">
+        <f t="shared" si="9"/>
+        <v>7410.2</v>
+      </c>
+      <c r="L182" s="2">
+        <f t="shared" si="10"/>
+        <v>3705.1</v>
+      </c>
+      <c r="M182" s="2">
+        <f t="shared" si="11"/>
+        <v>1852.55</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>26</v>
       </c>
@@ -5122,8 +8050,24 @@
       <c r="I183" s="2">
         <v>38303</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J183" s="2">
+        <f t="shared" si="8"/>
+        <v>19151.5</v>
+      </c>
+      <c r="K183" s="2">
+        <f t="shared" si="9"/>
+        <v>7660.6</v>
+      </c>
+      <c r="L183" s="2">
+        <f t="shared" si="10"/>
+        <v>3830.3</v>
+      </c>
+      <c r="M183" s="2">
+        <f t="shared" si="11"/>
+        <v>1915.15</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>27</v>
       </c>
@@ -5148,8 +8092,24 @@
       <c r="I184" s="2">
         <v>38148</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J184" s="2">
+        <f t="shared" si="8"/>
+        <v>19074</v>
+      </c>
+      <c r="K184" s="2">
+        <f t="shared" si="9"/>
+        <v>7629.6</v>
+      </c>
+      <c r="L184" s="2">
+        <f t="shared" si="10"/>
+        <v>3814.8</v>
+      </c>
+      <c r="M184" s="2">
+        <f t="shared" si="11"/>
+        <v>1907.4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>28</v>
       </c>
@@ -5177,8 +8137,24 @@
       <c r="I185" s="2">
         <v>37890</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J185" s="2">
+        <f t="shared" si="8"/>
+        <v>18945</v>
+      </c>
+      <c r="K185" s="2">
+        <f t="shared" si="9"/>
+        <v>7578</v>
+      </c>
+      <c r="L185" s="2">
+        <f t="shared" si="10"/>
+        <v>3789</v>
+      </c>
+      <c r="M185" s="2">
+        <f t="shared" si="11"/>
+        <v>1894.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>29</v>
       </c>
@@ -5206,8 +8182,24 @@
       <c r="I186" s="2">
         <v>42269</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J186" s="2">
+        <f t="shared" si="8"/>
+        <v>21134.5</v>
+      </c>
+      <c r="K186" s="2">
+        <f t="shared" si="9"/>
+        <v>8453.7999999999993</v>
+      </c>
+      <c r="L186" s="2">
+        <f t="shared" si="10"/>
+        <v>4226.8999999999996</v>
+      </c>
+      <c r="M186" s="2">
+        <f t="shared" si="11"/>
+        <v>2113.4499999999998</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>30</v>
       </c>
@@ -5235,8 +8227,24 @@
       <c r="I187" s="2">
         <v>38772</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J187" s="2">
+        <f t="shared" si="8"/>
+        <v>19386</v>
+      </c>
+      <c r="K187" s="2">
+        <f t="shared" si="9"/>
+        <v>7754.4</v>
+      </c>
+      <c r="L187" s="2">
+        <f t="shared" si="10"/>
+        <v>3877.2</v>
+      </c>
+      <c r="M187" s="2">
+        <f t="shared" si="11"/>
+        <v>1938.6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>31</v>
       </c>
@@ -5264,8 +8272,24 @@
       <c r="I188" s="2">
         <v>37831</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J188" s="2">
+        <f t="shared" si="8"/>
+        <v>18915.5</v>
+      </c>
+      <c r="K188" s="2">
+        <f t="shared" si="9"/>
+        <v>7566.2</v>
+      </c>
+      <c r="L188" s="2">
+        <f t="shared" si="10"/>
+        <v>3783.1</v>
+      </c>
+      <c r="M188" s="2">
+        <f t="shared" si="11"/>
+        <v>1891.55</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>32</v>
       </c>
@@ -5293,14 +8317,30 @@
       <c r="I189" s="2">
         <v>41649</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J189" s="2">
+        <f t="shared" si="8"/>
+        <v>20824.5</v>
+      </c>
+      <c r="K189" s="2">
+        <f t="shared" si="9"/>
+        <v>8329.7999999999993</v>
+      </c>
+      <c r="L189" s="2">
+        <f t="shared" si="10"/>
+        <v>4164.8999999999996</v>
+      </c>
+      <c r="M189" s="2">
+        <f t="shared" si="11"/>
+        <v>2082.4499999999998</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D190" s="1"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D191" s="1"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D192" s="1"/>
     </row>
     <row r="193" spans="4:4" x14ac:dyDescent="0.2">
